--- a/ol-handback/OpenLocalizationTest/windows-apps/qimu/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/windows-apps/qimu/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -34,21 +34,51 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>basic-accessibility-information.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-06-21 07:53:15</t>
+  </si>
+  <si>
+    <t>control-patterns-and-interfaces.md</t>
+  </si>
+  <si>
+    <t>custom-automation-peers.md</t>
+  </si>
+  <si>
+    <t>2016-06-21 07:52:53</t>
+  </si>
+  <si>
+    <t>designing-inclusive-software.md</t>
+  </si>
+  <si>
+    <t>developing-inclusive-windows-apps.md</t>
+  </si>
+  <si>
+    <t>high-contrast-themes.md</t>
+  </si>
+  <si>
+    <t>keyboard-accessibility.md</t>
+  </si>
+  <si>
+    <t>practices-to-avoid.md</t>
+  </si>
+  <si>
     <t>accessibility-checklist.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-06-21 07:53:15</t>
-  </si>
-  <si>
     <t>accessibility-in-the-store.md</t>
   </si>
   <si>
@@ -64,33 +94,6 @@
     <t>accessible-text-requirements.md</t>
   </si>
   <si>
-    <t>basic-accessibility-information.md</t>
-  </si>
-  <si>
-    <t>control-patterns-and-interfaces.md</t>
-  </si>
-  <si>
-    <t>custom-automation-peers.md</t>
-  </si>
-  <si>
-    <t>2016-06-21 07:52:53</t>
-  </si>
-  <si>
-    <t>designing-inclusive-software.md</t>
-  </si>
-  <si>
-    <t>developing-inclusive-windows-apps.md</t>
-  </si>
-  <si>
-    <t>high-contrast-themes.md</t>
-  </si>
-  <si>
-    <t>keyboard-accessibility.md</t>
-  </si>
-  <si>
-    <t>practices-to-avoid.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,18 +142,42 @@
     <t>windows-apps-src\accessibility</t>
   </si>
   <si>
+    <t>basic-accessibility-information.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-21 07:52:09</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>control-patterns-and-interfaces.xlf</t>
+  </si>
+  <si>
+    <t>custom-automation-peers.xlf</t>
+  </si>
+  <si>
+    <t>designing-inclusive-software.xlf</t>
+  </si>
+  <si>
+    <t>developing-inclusive-windows-apps.xlf</t>
+  </si>
+  <si>
+    <t>high-contrast-themes.xlf</t>
+  </si>
+  <si>
+    <t>keyboard-accessibility.xlf</t>
+  </si>
+  <si>
+    <t>practices-to-avoid.xlf</t>
+  </si>
+  <si>
     <t>accessibility-checklist.xlf</t>
   </si>
   <si>
-    <t>2016-06-21 07:52:09</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>accessibility-in-the-store.xlf</t>
   </si>
   <si>
@@ -164,30 +191,6 @@
   </si>
   <si>
     <t>accessible-text-requirements.xlf</t>
-  </si>
-  <si>
-    <t>basic-accessibility-information.xlf</t>
-  </si>
-  <si>
-    <t>control-patterns-and-interfaces.xlf</t>
-  </si>
-  <si>
-    <t>custom-automation-peers.xlf</t>
-  </si>
-  <si>
-    <t>designing-inclusive-software.xlf</t>
-  </si>
-  <si>
-    <t>developing-inclusive-windows-apps.xlf</t>
-  </si>
-  <si>
-    <t>high-contrast-themes.xlf</t>
-  </si>
-  <si>
-    <t>keyboard-accessibility.xlf</t>
-  </si>
-  <si>
-    <t>practices-to-avoid.xlf</t>
   </si>
 </sst>
 </file>
@@ -399,12 +402,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -424,7 +427,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -444,7 +447,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -464,7 +467,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
@@ -504,7 +507,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
@@ -513,18 +516,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
@@ -533,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -544,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -553,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -564,7 +567,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -573,10 +576,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
@@ -593,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -613,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -624,20 +627,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="accessibility-checklist.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="accessibility-in-the-store.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="accessibility-overview.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="accessibility-testing.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="accessibility.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="accessible-text-requirements.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="basic-accessibility-information.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="control-patterns-and-interfaces.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="custom-automation-peers.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="designing-inclusive-software.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="developing-inclusive-windows-apps.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="high-contrast-themes.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="keyboard-accessibility.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="practices-to-avoid.md" r:id="rId15"/>
+    <hyperlink ref="A2" display="basic-accessibility-information.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="control-patterns-and-interfaces.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="custom-automation-peers.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="designing-inclusive-software.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="developing-inclusive-windows-apps.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="high-contrast-themes.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keyboard-accessibility.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="practices-to-avoid.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="accessibility-checklist.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="accessibility-in-the-store.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="accessibility-overview.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="accessibility-testing.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="accessibility.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="accessible-text-requirements.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -673,49 +676,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -729,16 +732,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
@@ -747,19 +750,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -776,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -794,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -823,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -841,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -861,7 +864,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -870,16 +873,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -888,19 +891,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -917,16 +920,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -935,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -955,7 +958,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -964,16 +967,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
@@ -982,19 +985,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
@@ -1011,16 +1014,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -1029,19 +1032,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -1049,7 +1052,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
@@ -1058,16 +1061,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -1076,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -1096,25 +1099,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -1123,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -1143,25 +1146,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -1170,19 +1173,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -1190,25 +1193,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -1217,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -1237,25 +1240,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -1264,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -1284,25 +1287,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -1311,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -1331,25 +1334,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -1358,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -1378,20 +1381,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="accessibility-checklist.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="accessibility-in-the-store.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="accessibility-overview.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="accessibility-testing.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="accessibility.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="accessible-text-requirements.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="basic-accessibility-information.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="control-patterns-and-interfaces.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="custom-automation-peers.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="designing-inclusive-software.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="developing-inclusive-windows-apps.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="high-contrast-themes.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="keyboard-accessibility.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="practices-to-avoid.md" r:id="rId15"/>
+    <hyperlink ref="A2" display="basic-accessibility-information.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="control-patterns-and-interfaces.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="custom-automation-peers.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="designing-inclusive-software.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="developing-inclusive-windows-apps.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="high-contrast-themes.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keyboard-accessibility.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="practices-to-avoid.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="accessibility-checklist.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="accessibility-in-the-store.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="accessibility-overview.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="accessibility-testing.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="accessibility.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="accessible-text-requirements.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1427,49 +1430,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -1483,13 +1486,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>8</v>
@@ -1530,13 +1533,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>8</v>
@@ -1577,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -1595,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>8</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -1624,13 +1627,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>8</v>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -1671,13 +1674,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>8</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -1718,13 +1721,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>8</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
@@ -1765,13 +1768,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>8</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
@@ -1812,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>8</v>
@@ -1850,25 +1853,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -1877,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>8</v>
@@ -1897,22 +1900,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>8</v>
@@ -1944,22 +1947,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>8</v>
@@ -1991,22 +1994,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>8</v>
@@ -2038,22 +2041,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2068,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>8</v>
@@ -2085,22 +2088,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>8</v>
@@ -2132,20 +2135,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="accessibility-checklist.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="accessibility-in-the-store.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="accessibility-overview.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="accessibility-testing.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="accessibility.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="accessible-text-requirements.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="basic-accessibility-information.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="control-patterns-and-interfaces.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="custom-automation-peers.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="designing-inclusive-software.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="developing-inclusive-windows-apps.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="high-contrast-themes.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="keyboard-accessibility.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="practices-to-avoid.md" r:id="rId15"/>
+    <hyperlink ref="A2" display="basic-accessibility-information.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="control-patterns-and-interfaces.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="custom-automation-peers.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="designing-inclusive-software.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="developing-inclusive-windows-apps.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="high-contrast-themes.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keyboard-accessibility.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="practices-to-avoid.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="accessibility-checklist.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="accessibility-in-the-store.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="accessibility-overview.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="accessibility-testing.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="accessibility.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="accessible-text-requirements.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
